--- a/Texts/Город Сокровищ/Все персонажи/Брелум.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Брелум.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -139,6 +139,72 @@
   </si>
   <si>
     <t xml:space="preserve"> Îàí îôçîï ðïòóôðéóû óàë, ëàë\nòëàèàì [CS:N]Àíõàñïò[CR] é ïóðñàâéóûòÿ îà âåñšéîô.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hey![K] That last exploration was\nincredible, huh?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I\'m still shaking a little from\nflying down here from the summit!</t>
+  </si>
+  <si>
+    <t>SCRIPT/D73P11A/us3116.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Привет![K] Вот так захватывающее\nприключение у нас вышло, а?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я всё ещё несколько под\nвпечатлением от полёта с вершины!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðñéâåó![K] Âïó óàë èàöâàóúâàýþåå\nðñéëìýœåîéå ô îàò âúšìï, à?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ âòæ åþæ îåòëïìûëï ðïä\nâðåœàóìåîéåí ïó ðïìæóà ò âåñšéîú!</t>
+  </si>
+  <si>
+    <t>SCRIPT/D73P11A/us0214.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/D73P11A/us0308.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We\'ve been working pretty hard\nfor [CS:N]Spinda[CR], so he gave us the day off.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:N]Shaymin[CR] are really easy to get\nalong with and hospitable. We were thinking of\njust relaxing here for a while.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Мы усердно трудились на [CS:N]Спинду[CR],\nпоэтому он дал нам выходной.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> С [CS:N]Шейминами[CR] легко найти общий\nязык и они очень гостеприимны. Думаю,\nмы просто отдохнём у них.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íú ôòåñäîï óñôäéìéòû îà [CS:N]Òðéîäô[CR],\nðïüóïíô ïî äàì îàí âúöïäîïê.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ò [CS:N]Šåêíéîàíé[CR] ìåãëï îàêóé ïáþéê\nÿèúë é ïîé ïœåîû ãïòóåðñééíîú. Äôíàý,\níú ðñïòóï ïóäïöîæí ô îéö.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> It\'s time for us to move on and\ndiscover new areas that no one\'s seen before.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> If there happens to be a new\ndiscovery, we will let you know!</t>
+  </si>
+  <si>
+    <t>SCRIPT/D73P11A/us0411.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Нам пора идти дальше и искать\nновые неизведанные места.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Если мы что-нибудь найдём, мы\nвам об этом расскажем!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îàí ðïñà éäóé äàìûšå é éòëàóû\nîïâúå îåéèâåäàîîúå íåòóà.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Åòìé íú œóï-îéáôäû îàêäæí, íú\nâàí ïá üóïí ñàòòëàçåí!</t>
   </si>
 </sst>
 </file>
@@ -169,7 +235,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -221,11 +287,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -252,6 +327,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -534,10 +615,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -708,20 +789,117 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="8">
         <v>80</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="9" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="4">
+        <v>63</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="10">
+        <v>67</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="4">
+        <v>41</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6">
+        <v>44</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" s="4">
+        <v>18</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B17" s="4">
+        <v>21</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
